--- a/lab3/doc/Check List.xlsx
+++ b/lab3/doc/Check List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\Desktop\ТПО\ЛР 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimda\Desktop\ТПО\ЛР 3\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8565BDB2-F577-4A23-84C4-4399E611B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2FFDB-3CDF-43CB-BFC4-3046E78FE4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
   <si>
     <t>№</t>
   </si>
@@ -367,10 +367,31 @@
     <t>Правила площадки ограничивают редактирование вопросов. Эта функциядоступна только в течение 30 минут после создания вопроса</t>
   </si>
   <si>
-    <t>Активного взаимодействия с UI нетю Достаточно проверки наличия элементов в дереве документа</t>
-  </si>
-  <si>
     <t>Правила площадки ограничивают редактирование вопросов. Создание одного вопроса тратит 5 баллов активности. Из-за невозможности удалить созданный вопрос, создание тестов не может быть повторяемым (приходится добавлять хэш-значение в название вопроса, чтобы оно не совпадало с уже существующими)</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Почему-то кол-во ответов меняется. Такое ощущение будто данные подгружаются с разных серверов, которые не синхронизированы между собой.  </t>
+  </si>
+  <si>
+    <t>Skipped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Под вопросом нельзя оставлять больше одного комментария. А учитывая, что баллы активности ограничены, придется каждый раз создавать новые аккаунты (для авторизации во время тестирования, и тот на чьи вопросы нужно отвечать). </t>
+  </si>
+  <si>
+    <t>Система работает неисправно. Список пользователей, оставивших реакцию, не обновляется сразу и индикация тоже запаздывает.</t>
+  </si>
+  <si>
+    <t>Существует дневной лимит на кол-во реакций</t>
+  </si>
+  <si>
+    <t>Есть кулдаун на создание нового вопроса</t>
+  </si>
+  <si>
+    <t>Активного взаимодействия с UI нет. Достаточно проверки наличия элементов в дереве документа</t>
   </si>
 </sst>
 </file>
@@ -418,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,8 +470,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -593,11 +626,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,6 +689,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,9 +721,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -950,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,30 +1022,30 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="21" t="s">
+      <c r="E2" s="22"/>
+      <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8">
@@ -1000,7 +1054,7 @@
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
     </row>
@@ -1011,7 +1065,9 @@
       <c r="C5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="5"/>
     </row>
@@ -1022,7 +1078,9 @@
       <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="5"/>
     </row>
@@ -1033,7 +1091,9 @@
       <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
@@ -1044,7 +1104,7 @@
       <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="4"/>
       <c r="F8" s="5"/>
     </row>
@@ -1055,10 +1115,12 @@
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1068,7 +1130,9 @@
       <c r="C10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5"/>
     </row>
@@ -1079,7 +1143,7 @@
       <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="4"/>
       <c r="F11" s="5"/>
     </row>
@@ -1090,7 +1154,9 @@
       <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5"/>
     </row>
@@ -1101,7 +1167,9 @@
       <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="5"/>
     </row>
@@ -1112,7 +1180,7 @@
       <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="4"/>
       <c r="F14" s="5"/>
     </row>
@@ -1123,7 +1191,9 @@
       <c r="C15" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="5"/>
     </row>
@@ -1134,7 +1204,7 @@
       <c r="C16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
     </row>
@@ -1145,7 +1215,9 @@
       <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E17" s="4"/>
       <c r="F17" s="5"/>
     </row>
@@ -1156,9 +1228,13 @@
       <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
@@ -1167,7 +1243,9 @@
       <c r="C19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E19" s="4"/>
       <c r="F19" s="5"/>
     </row>
@@ -1178,29 +1256,39 @@
       <c r="C20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
@@ -1211,29 +1299,37 @@
       <c r="C23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E25" s="4"/>
       <c r="F25" s="5"/>
     </row>
@@ -1244,7 +1340,7 @@
       <c r="C26" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="18"/>
       <c r="E26" s="4"/>
       <c r="F26" s="5"/>
     </row>
@@ -1253,9 +1349,11 @@
         <v>57</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E27" s="4"/>
       <c r="F27" s="5"/>
     </row>
@@ -1264,9 +1362,11 @@
         <v>58</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="5"/>
     </row>
@@ -1288,10 +1388,12 @@
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E30" s="4"/>
       <c r="F30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1301,7 +1403,9 @@
       <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
     </row>
@@ -1312,8 +1416,11 @@
       <c r="C32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E32" s="4"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
@@ -1322,7 +1429,9 @@
       <c r="C33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
     </row>
@@ -1333,7 +1442,9 @@
       <c r="C34" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="5"/>
     </row>
@@ -1344,7 +1455,9 @@
       <c r="C35" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="5"/>
     </row>
@@ -1368,8 +1481,11 @@
       <c r="C37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="E37" s="4"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" spans="2:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
@@ -1378,7 +1494,9 @@
       <c r="C38" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="5" t="s">
         <v>72</v>
@@ -1391,7 +1509,7 @@
       <c r="C39" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="4"/>
       <c r="F39" s="5"/>
     </row>
@@ -1402,7 +1520,9 @@
       <c r="C40" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="19" t="s">
+        <v>77</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="5" t="s">
         <v>71</v>
@@ -1412,10 +1532,10 @@
       <c r="B41" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
     </row>
